--- a/data-raw/metadata/release_metadata.xlsx
+++ b/data-raw/metadata/release_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DEFE6-ECAE-AD41-AB33-020D243EA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07701B5B-7BB8-934F-B4B9-3E190833B873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -345,8 +345,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +563,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -918,9 +916,15 @@
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1023,7 +1027,7 @@
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1038,7 +1042,7 @@
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="3" t="s">

--- a/data-raw/metadata/release_metadata.xlsx
+++ b/data-raw/metadata/release_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07701B5B-7BB8-934F-B4B9-3E190833B873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82043963-0945-C74B-93FF-0C6943632C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>appliedMarkColor</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For Knight's Landing RST Program, projectDescriptionID = 9.</t>
-  </si>
-  <si>
     <t>sourceOfFishSite</t>
   </si>
   <si>
@@ -211,11 +208,6 @@
     <t>Mark type that was applied to the release group. Levels = c("Pigment / dye", "Fin clip", "Elastomer", NA)</t>
   </si>
   <si>
-    <t>Color of mark that was applied to the release group. Levels = c("Brown", "Orange", "Pink", "Not applicable (n/a)", "Green", 
-NA, "Red", "Blue", "Purple / Violet")
-"Green", "Not applicable (n/a)")</t>
-  </si>
-  <si>
     <t>Position of the mark that was applied to the mark group. Levels = c("Whole body", "Nose", "Pelvic fin, left", NA)</t>
   </si>
   <si>
@@ -223,6 +215,12 @@
   </si>
   <si>
     <t>Code for whether release trial should be included. Levels = c("Yes", "No")</t>
+  </si>
+  <si>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 9.</t>
+  </si>
+  <si>
+    <t>Color of mark that was applied to the release group. Levels = c("Brown", "Orange", "Pink", NA, "Green", "Red", "Blue", "Purple / Violet")</t>
   </si>
 </sst>
 </file>
@@ -563,7 +561,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -642,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -738,10 +736,10 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -762,7 +760,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
@@ -800,7 +798,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -838,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -876,7 +874,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -911,10 +909,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -949,10 +947,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -987,7 +985,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -1124,7 +1122,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1162,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1197,10 +1195,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1235,10 +1233,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -28577,16 +28575,16 @@
     <mergeCell ref="A31:A32"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C49:C992 C17 C1:C16 C18:C37" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C49:C992 C1:C37" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E17 E1:E16 E18:E992" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E992" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F17 F1:F16 F18:F992" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F992" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17 H1:H16 H18:H992" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H992" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/release_metadata.xlsx
+++ b/data-raw/metadata/release_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569DEE96-DAE2-49E0-B848-49E2D201C8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF6644-698B-45F4-943B-F2A87558FC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7070" yWindow="1780" windowWidth="15070" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>2024-03-26 10:15:50</t>
+  </si>
+  <si>
+    <t>enumerated</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -649,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -28598,7 +28601,7 @@
   <dimension ref="A1:Z666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -28644,10 +28647,15 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="12">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>

--- a/data-raw/metadata/release_metadata.xlsx
+++ b/data-raw/metadata/release_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF6644-698B-45F4-943B-F2A87558FC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A58EF-2EDF-470F-B292-BFFD22E4BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="3070" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -646,7 +646,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>15</v>
